--- a/biology/Botanique/Elatostema/Elatostema.xlsx
+++ b/biology/Botanique/Elatostema/Elatostema.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Elatostema est un genre de plantes à fleurs de la famille des Urticaceae.
 </t>
@@ -511,9 +523,11 @@
           <t>Liste des espèces et variétés</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon Catalogue of Life                                   (22 février 2019)[2] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon Catalogue of Life                                   (22 février 2019) :
 Elatostema abangense Amshoff
 Elatostema acrophilum C. B. Rob.
 Elatostema actinodromum W. T. Wang
@@ -1106,10 +1120,10 @@
 Elatostema yungshunense W. T. Wang
 Elatostema zamboangense Merr.
 Elatostema zhenyuanense W. T. Wang &amp; Z. Y. Wu
-Selon ITIS      (22 février 2019)[3] :
+Selon ITIS      (22 février 2019) :
 Elatostema calcareum Merr.
 Elatostema grandifolium Reinecke
-Selon NCBI  (22 février 2019)[4] :
+Selon NCBI  (22 février 2019) :
 Elatostema acuminatum
 Elatostema acuteserratum
 Elatostema albopilosum
@@ -1180,7 +1194,7 @@
 variété Elatostema umbellatum var. majus
 Elatostema villosum
 Elatostema yakushimense
-Selon The Plant List            (22 février 2019)[5] :
+Selon The Plant List            (22 février 2019) :
 Elatostema abangense Amshoff
 Elatostema acrophilum C.B.Rob.
 Elatostema actinotrichum W.T.Wang
@@ -1470,7 +1484,7 @@
 Elatostema microcarpum W.T.Wang &amp; Y.G.Wei
 Elatostema microcephalanthum Hayata
 Elatostema microdontum W.T.Wang
-Elatost</t>
+Elatostema microphy</t>
         </is>
       </c>
     </row>
